--- a/sub_pro_1_hass_land_price_app/processed_tables/hass_suburbs_combined_2015_to_20XX.xlsx
+++ b/sub_pro_1_hass_land_price_app/processed_tables/hass_suburbs_combined_2015_to_20XX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R_Files\shiny_app_dev\sub_pro_1_hass_land_price_app\processed_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37625F19-BC80-4882-9475-E6C7B243EB23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7057D15B-C377-4CC6-9D6B-49DDAF809278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D3853AC9-06FF-4365-90E2-3556EBD50BC8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="27">
   <si>
     <t>Donholm</t>
   </si>
@@ -106,96 +106,6 @@
   </si>
   <si>
     <t>Muthangari</t>
-  </si>
-  <si>
-    <t>252,200,000 200,000,000 300,000,000</t>
-  </si>
-  <si>
-    <t>72,300,000 62,000,000 76,000,000</t>
-  </si>
-  <si>
-    <t>327,300,000 280,000,000 350,000,000</t>
-  </si>
-  <si>
-    <t>420,500,000 360,000,000 464,300,000</t>
-  </si>
-  <si>
-    <t>99,900,000 80,000,000 110,000,000</t>
-  </si>
-  <si>
-    <t>86,200,000 65,000,000 112,000,000</t>
-  </si>
-  <si>
-    <t>270,900,000 200,000,000 325,000,</t>
-  </si>
-  <si>
-    <t>114,400,000 86,000,000 133,300,000</t>
-  </si>
-  <si>
-    <t>463,600,000 365,400,000 530,000,000</t>
-  </si>
-  <si>
-    <t>90,900,000 80,000,000 96,000,000</t>
-  </si>
-  <si>
-    <t>355,000,000 300,000,000 398,500,000</t>
-  </si>
-  <si>
-    <t>96,900,000 80,000,000 110,000,000</t>
-  </si>
-  <si>
-    <t>295,300,000 170,000,000 400,000,000</t>
-  </si>
-  <si>
-    <t>545,800,000 428,600,000 570,000,000</t>
-  </si>
-  <si>
-    <t>498,300,000 404,300,000 550,000,000</t>
-  </si>
-  <si>
-    <t>257,400,000 200,000,000 300,000,000</t>
-  </si>
-  <si>
-    <t>73,800,000 65,000,000 80,000,000</t>
-  </si>
-  <si>
-    <t>329,400,000 300,000,000 360,000,000</t>
-  </si>
-  <si>
-    <t>422,800,000 360,000,000 469,500,000</t>
-  </si>
-  <si>
-    <t>100,700,000 80,000,000 112,000,000</t>
-  </si>
-  <si>
-    <t>88,100,000 70,000,000 110,300,000</t>
-  </si>
-  <si>
-    <t>272,700,000 205,500,000 333,300,000</t>
-  </si>
-  <si>
-    <t>117,700,000 95,300,000 136,000,000</t>
-  </si>
-  <si>
-    <t>465,600,000 396,800,000 530,300,000</t>
-  </si>
-  <si>
-    <t>91,600,000 80,000,000 96,000,000</t>
-  </si>
-  <si>
-    <t>360,500,000 308,200,000 400,000,000</t>
-  </si>
-  <si>
-    <t>98,200,000 84,000,000 110,000,000</t>
-  </si>
-  <si>
-    <t>305,900,000 187,400,000 452,400,000</t>
-  </si>
-  <si>
-    <t>554,600,000 463,400,000 600,000,000</t>
-  </si>
-  <si>
-    <t>504,000,000 425,500,000 550,000,000</t>
   </si>
 </sst>
 </file>
@@ -357,8 +267,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -678,7 +588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE2B9762-D2C3-4584-935D-F49930C9F793}">
   <dimension ref="A1:L861"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A851" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G818" sqref="G818"/>
     </sheetView>
   </sheetViews>
@@ -690,7 +600,7 @@
     <col min="4" max="4" width="17.453125" style="26" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.08984375" style="26" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.453125" style="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.26953125" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.08984375" style="24" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.7265625" style="24" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.26953125" style="24" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.08984375" style="24" customWidth="1"/>
@@ -2533,12 +2443,16 @@
       <c r="C86" s="23">
         <v>2</v>
       </c>
-      <c r="D86" s="15"/>
-      <c r="E86" s="15"/>
-      <c r="F86" s="14"/>
-      <c r="G86" s="27" t="s">
-        <v>27</v>
-      </c>
+      <c r="D86" s="15">
+        <v>252200000</v>
+      </c>
+      <c r="E86" s="15">
+        <v>200000000</v>
+      </c>
+      <c r="F86" s="14">
+        <v>300000000</v>
+      </c>
+      <c r="G86" s="27"/>
     </row>
     <row r="87" spans="1:7" ht="15.5">
       <c r="A87" s="23" t="s">
@@ -2550,12 +2464,16 @@
       <c r="C87" s="23">
         <v>3</v>
       </c>
-      <c r="D87" s="15"/>
-      <c r="E87" s="15"/>
-      <c r="F87" s="14"/>
-      <c r="G87" s="24" t="s">
-        <v>42</v>
-      </c>
+      <c r="D87" s="15">
+        <v>257400000</v>
+      </c>
+      <c r="E87" s="15">
+        <v>200000000</v>
+      </c>
+      <c r="F87" s="14">
+        <v>300000000</v>
+      </c>
+      <c r="G87" s="28"/>
     </row>
     <row r="88" spans="1:7" ht="15.5">
       <c r="A88" s="23" t="s">
@@ -3387,12 +3305,16 @@
       <c r="C129" s="23">
         <v>2</v>
       </c>
-      <c r="D129" s="15"/>
-      <c r="E129" s="15"/>
-      <c r="F129" s="14"/>
-      <c r="G129" s="27" t="s">
-        <v>28</v>
-      </c>
+      <c r="D129" s="15">
+        <v>72300000</v>
+      </c>
+      <c r="E129" s="15">
+        <v>62000000</v>
+      </c>
+      <c r="F129" s="14">
+        <v>76000000</v>
+      </c>
+      <c r="G129" s="27"/>
     </row>
     <row r="130" spans="1:7" ht="15.5">
       <c r="A130" s="23" t="s">
@@ -3404,12 +3326,16 @@
       <c r="C130" s="23">
         <v>3</v>
       </c>
-      <c r="D130" s="15"/>
-      <c r="E130" s="15"/>
-      <c r="F130" s="14"/>
-      <c r="G130" s="24" t="s">
-        <v>43</v>
-      </c>
+      <c r="D130" s="15">
+        <v>73800000</v>
+      </c>
+      <c r="E130" s="15">
+        <v>65000000</v>
+      </c>
+      <c r="F130" s="14">
+        <v>80000000</v>
+      </c>
+      <c r="G130" s="28"/>
     </row>
     <row r="131" spans="1:7" ht="15.5">
       <c r="A131" s="23" t="s">
@@ -4241,12 +4167,16 @@
       <c r="C172" s="23">
         <v>2</v>
       </c>
-      <c r="D172" s="15"/>
-      <c r="E172" s="15"/>
-      <c r="F172" s="14"/>
-      <c r="G172" s="27" t="s">
-        <v>29</v>
-      </c>
+      <c r="D172" s="15">
+        <v>327300000</v>
+      </c>
+      <c r="E172" s="15">
+        <v>280000000</v>
+      </c>
+      <c r="F172" s="14">
+        <v>350000000</v>
+      </c>
+      <c r="G172" s="27"/>
     </row>
     <row r="173" spans="1:7" ht="15.5">
       <c r="A173" s="23" t="s">
@@ -4258,12 +4188,16 @@
       <c r="C173" s="23">
         <v>3</v>
       </c>
-      <c r="D173" s="15"/>
-      <c r="E173" s="15"/>
-      <c r="F173" s="14"/>
-      <c r="G173" s="24" t="s">
-        <v>44</v>
-      </c>
+      <c r="D173" s="15">
+        <v>329400000</v>
+      </c>
+      <c r="E173" s="15">
+        <v>300000000</v>
+      </c>
+      <c r="F173" s="14">
+        <v>360000000</v>
+      </c>
+      <c r="G173" s="28"/>
     </row>
     <row r="174" spans="1:7" ht="15.5">
       <c r="A174" s="23" t="s">
@@ -5095,12 +5029,16 @@
       <c r="C215" s="23">
         <v>2</v>
       </c>
-      <c r="D215" s="15"/>
-      <c r="E215" s="15"/>
-      <c r="F215" s="14"/>
-      <c r="G215" s="24" t="s">
-        <v>30</v>
-      </c>
+      <c r="D215" s="15">
+        <v>420500000</v>
+      </c>
+      <c r="E215" s="15">
+        <v>360000000</v>
+      </c>
+      <c r="F215" s="14">
+        <v>464300000</v>
+      </c>
+      <c r="G215" s="28"/>
     </row>
     <row r="216" spans="1:7" ht="15.5">
       <c r="A216" s="23" t="s">
@@ -5112,12 +5050,16 @@
       <c r="C216" s="23">
         <v>3</v>
       </c>
-      <c r="D216" s="15"/>
-      <c r="E216" s="15"/>
-      <c r="F216" s="14"/>
-      <c r="G216" s="24" t="s">
-        <v>45</v>
-      </c>
+      <c r="D216" s="15">
+        <v>422800000</v>
+      </c>
+      <c r="E216" s="15">
+        <v>360000000</v>
+      </c>
+      <c r="F216" s="14">
+        <v>469500000</v>
+      </c>
+      <c r="G216" s="28"/>
     </row>
     <row r="217" spans="1:7" ht="15.5">
       <c r="A217" s="23" t="s">
@@ -5949,12 +5891,16 @@
       <c r="C258" s="23">
         <v>2</v>
       </c>
-      <c r="D258" s="15"/>
-      <c r="E258" s="15"/>
-      <c r="F258" s="14"/>
-      <c r="G258" s="24" t="s">
-        <v>31</v>
-      </c>
+      <c r="D258" s="15">
+        <v>99900000</v>
+      </c>
+      <c r="E258" s="15">
+        <v>80000000</v>
+      </c>
+      <c r="F258" s="14">
+        <v>110000000</v>
+      </c>
+      <c r="G258" s="28"/>
     </row>
     <row r="259" spans="1:7" ht="15.5">
       <c r="A259" s="23" t="s">
@@ -5966,12 +5912,16 @@
       <c r="C259" s="23">
         <v>3</v>
       </c>
-      <c r="D259" s="15"/>
-      <c r="E259" s="15"/>
-      <c r="F259" s="14"/>
-      <c r="G259" s="24" t="s">
-        <v>46</v>
-      </c>
+      <c r="D259" s="15">
+        <v>100700000</v>
+      </c>
+      <c r="E259" s="15">
+        <v>80000000</v>
+      </c>
+      <c r="F259" s="14">
+        <v>112000000</v>
+      </c>
+      <c r="G259" s="28"/>
     </row>
     <row r="260" spans="1:7" ht="15.5">
       <c r="A260" s="23" t="s">
@@ -6803,12 +6753,16 @@
       <c r="C301" s="23">
         <v>2</v>
       </c>
-      <c r="D301" s="15"/>
-      <c r="E301" s="15"/>
-      <c r="F301" s="14"/>
-      <c r="G301" s="24" t="s">
-        <v>32</v>
-      </c>
+      <c r="D301" s="15">
+        <v>86200000</v>
+      </c>
+      <c r="E301" s="15">
+        <v>65000000</v>
+      </c>
+      <c r="F301" s="14">
+        <v>112000000</v>
+      </c>
+      <c r="G301" s="28"/>
     </row>
     <row r="302" spans="1:7" ht="15.5">
       <c r="A302" s="23" t="s">
@@ -6820,12 +6774,16 @@
       <c r="C302" s="23">
         <v>3</v>
       </c>
-      <c r="D302" s="15"/>
-      <c r="E302" s="15"/>
-      <c r="F302" s="14"/>
-      <c r="G302" s="24" t="s">
-        <v>47</v>
-      </c>
+      <c r="D302" s="15">
+        <v>88100000</v>
+      </c>
+      <c r="E302" s="15">
+        <v>70000000</v>
+      </c>
+      <c r="F302" s="14">
+        <v>110300000</v>
+      </c>
+      <c r="G302" s="28"/>
     </row>
     <row r="303" spans="1:7" ht="15.5">
       <c r="A303" s="23" t="s">
@@ -7657,11 +7615,14 @@
       <c r="C344" s="23">
         <v>2</v>
       </c>
-      <c r="D344" s="15"/>
-      <c r="E344" s="15"/>
-      <c r="F344" s="14"/>
-      <c r="G344" s="24" t="s">
-        <v>33</v>
+      <c r="D344" s="15">
+        <v>270900000</v>
+      </c>
+      <c r="E344" s="15">
+        <v>200000000</v>
+      </c>
+      <c r="F344" s="14">
+        <v>325000000</v>
       </c>
     </row>
     <row r="345" spans="1:7" ht="15.5">
@@ -7674,12 +7635,16 @@
       <c r="C345" s="23">
         <v>3</v>
       </c>
-      <c r="D345" s="15"/>
-      <c r="E345" s="15"/>
-      <c r="F345" s="14"/>
-      <c r="G345" s="24" t="s">
-        <v>48</v>
-      </c>
+      <c r="D345" s="15">
+        <v>272700000</v>
+      </c>
+      <c r="E345" s="15">
+        <v>205500000</v>
+      </c>
+      <c r="F345" s="14">
+        <v>333300000</v>
+      </c>
+      <c r="G345" s="28"/>
     </row>
     <row r="346" spans="1:7" ht="15.5">
       <c r="A346" s="23" t="s">
@@ -8511,12 +8476,16 @@
       <c r="C387" s="23">
         <v>2</v>
       </c>
-      <c r="D387" s="15"/>
-      <c r="E387" s="15"/>
-      <c r="F387" s="14"/>
-      <c r="G387" s="24" t="s">
-        <v>34</v>
-      </c>
+      <c r="D387" s="15">
+        <v>114400000</v>
+      </c>
+      <c r="E387" s="15">
+        <v>86000000</v>
+      </c>
+      <c r="F387" s="14">
+        <v>133300000</v>
+      </c>
+      <c r="G387" s="28"/>
     </row>
     <row r="388" spans="1:7" ht="15.5">
       <c r="A388" s="23" t="s">
@@ -8528,12 +8497,16 @@
       <c r="C388" s="23">
         <v>3</v>
       </c>
-      <c r="D388" s="15"/>
-      <c r="E388" s="15"/>
-      <c r="F388" s="14"/>
-      <c r="G388" s="24" t="s">
-        <v>49</v>
-      </c>
+      <c r="D388" s="15">
+        <v>117700000</v>
+      </c>
+      <c r="E388" s="15">
+        <v>95300000</v>
+      </c>
+      <c r="F388" s="14">
+        <v>136000000</v>
+      </c>
+      <c r="G388" s="28"/>
     </row>
     <row r="389" spans="1:7" ht="15.5">
       <c r="A389" s="23" t="s">
@@ -9095,7 +9068,7 @@
         <v>213200000</v>
       </c>
     </row>
-    <row r="417" spans="1:6" ht="15.5">
+    <row r="417" spans="1:9" ht="15.5">
       <c r="A417" s="23" t="s">
         <v>9</v>
       </c>
@@ -9115,7 +9088,7 @@
         <v>220000000</v>
       </c>
     </row>
-    <row r="418" spans="1:6" ht="15.5">
+    <row r="418" spans="1:9" ht="15.5">
       <c r="A418" s="23" t="s">
         <v>9</v>
       </c>
@@ -9135,7 +9108,7 @@
         <v>210000000</v>
       </c>
     </row>
-    <row r="419" spans="1:6" ht="15.5">
+    <row r="419" spans="1:9" ht="15.5">
       <c r="A419" s="23" t="s">
         <v>9</v>
       </c>
@@ -9155,7 +9128,7 @@
         <v>235300000</v>
       </c>
     </row>
-    <row r="420" spans="1:6" ht="15.5">
+    <row r="420" spans="1:9" ht="15.5">
       <c r="A420" s="23" t="s">
         <v>9</v>
       </c>
@@ -9175,7 +9148,7 @@
         <v>235300000</v>
       </c>
     </row>
-    <row r="421" spans="1:6" ht="15.5">
+    <row r="421" spans="1:9" ht="15.5">
       <c r="A421" s="23" t="s">
         <v>9</v>
       </c>
@@ -9195,7 +9168,7 @@
         <v>235300000</v>
       </c>
     </row>
-    <row r="422" spans="1:6" ht="15.5">
+    <row r="422" spans="1:9" ht="15.5">
       <c r="A422" s="23" t="s">
         <v>9</v>
       </c>
@@ -9215,7 +9188,7 @@
         <v>249900000</v>
       </c>
     </row>
-    <row r="423" spans="1:6" ht="15.5">
+    <row r="423" spans="1:9" ht="15.5">
       <c r="A423" s="23" t="s">
         <v>9</v>
       </c>
@@ -9235,7 +9208,7 @@
         <v>232000000</v>
       </c>
     </row>
-    <row r="424" spans="1:6" ht="15.5">
+    <row r="424" spans="1:9" ht="15.5">
       <c r="A424" s="23" t="s">
         <v>9</v>
       </c>
@@ -9255,7 +9228,7 @@
         <v>260000000</v>
       </c>
     </row>
-    <row r="425" spans="1:6" ht="15.5">
+    <row r="425" spans="1:9" ht="15.5">
       <c r="A425" s="23" t="s">
         <v>9</v>
       </c>
@@ -9275,7 +9248,7 @@
         <v>250000000</v>
       </c>
     </row>
-    <row r="426" spans="1:6" ht="15.5">
+    <row r="426" spans="1:9" ht="15.5">
       <c r="A426" s="23" t="s">
         <v>9</v>
       </c>
@@ -9295,7 +9268,7 @@
         <v>250000000</v>
       </c>
     </row>
-    <row r="427" spans="1:6" ht="15.5">
+    <row r="427" spans="1:9" ht="15.5">
       <c r="A427" s="23" t="s">
         <v>9</v>
       </c>
@@ -9315,7 +9288,7 @@
         <v>250000000</v>
       </c>
     </row>
-    <row r="428" spans="1:6" ht="15.5">
+    <row r="428" spans="1:9" ht="15.5">
       <c r="A428" s="23" t="s">
         <v>9</v>
       </c>
@@ -9335,7 +9308,7 @@
         <v>250000000</v>
       </c>
     </row>
-    <row r="429" spans="1:6" ht="15.5">
+    <row r="429" spans="1:9" ht="15.5">
       <c r="A429" s="23" t="s">
         <v>9</v>
       </c>
@@ -9355,7 +9328,7 @@
         <v>250000000</v>
       </c>
     </row>
-    <row r="430" spans="1:6" ht="15.5">
+    <row r="430" spans="1:9" ht="15.5">
       <c r="A430" s="23" t="s">
         <v>9</v>
       </c>
@@ -9365,17 +9338,20 @@
       <c r="C430" s="23">
         <v>2</v>
       </c>
-      <c r="D430" s="28">
+      <c r="D430" s="25">
         <v>234600000</v>
       </c>
-      <c r="E430" s="28">
+      <c r="E430" s="25">
         <v>200000000</v>
       </c>
-      <c r="F430" s="28">
+      <c r="F430" s="25">
         <v>250000000</v>
       </c>
-    </row>
-    <row r="431" spans="1:6" ht="15.5">
+      <c r="G430" s="27"/>
+      <c r="H430" s="27"/>
+      <c r="I430" s="27"/>
+    </row>
+    <row r="431" spans="1:9" ht="15.5">
       <c r="A431" s="23" t="s">
         <v>9</v>
       </c>
@@ -9385,17 +9361,20 @@
       <c r="C431" s="23">
         <v>3</v>
       </c>
-      <c r="D431" s="28">
+      <c r="D431" s="25">
         <v>234100000</v>
       </c>
-      <c r="E431" s="28">
+      <c r="E431" s="25">
         <v>200000000</v>
       </c>
-      <c r="F431" s="28">
+      <c r="F431" s="25">
         <v>250000000</v>
       </c>
-    </row>
-    <row r="432" spans="1:6" ht="15.5">
+      <c r="G431" s="27"/>
+      <c r="H431" s="27"/>
+      <c r="I431" s="27"/>
+    </row>
+    <row r="432" spans="1:9" ht="15.5">
       <c r="A432" s="23" t="s">
         <v>26</v>
       </c>
@@ -10055,7 +10034,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="465" spans="1:6" ht="15.5">
+    <row r="465" spans="1:9" ht="15.5">
       <c r="A465" s="23" t="s">
         <v>26</v>
       </c>
@@ -10075,7 +10054,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="466" spans="1:6" ht="15.5">
+    <row r="466" spans="1:9" ht="15.5">
       <c r="A466" s="23" t="s">
         <v>26</v>
       </c>
@@ -10095,7 +10074,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="467" spans="1:6" ht="15.5">
+    <row r="467" spans="1:9" ht="15.5">
       <c r="A467" s="23" t="s">
         <v>26</v>
       </c>
@@ -10115,7 +10094,7 @@
         <v>410800000</v>
       </c>
     </row>
-    <row r="468" spans="1:6" ht="15.5">
+    <row r="468" spans="1:9" ht="15.5">
       <c r="A468" s="23" t="s">
         <v>26</v>
       </c>
@@ -10135,7 +10114,7 @@
         <v>410800000</v>
       </c>
     </row>
-    <row r="469" spans="1:6" ht="15.5">
+    <row r="469" spans="1:9" ht="15.5">
       <c r="A469" s="23" t="s">
         <v>26</v>
       </c>
@@ -10155,7 +10134,7 @@
         <v>410800000</v>
       </c>
     </row>
-    <row r="470" spans="1:6" ht="15.5">
+    <row r="470" spans="1:9" ht="15.5">
       <c r="A470" s="23" t="s">
         <v>26</v>
       </c>
@@ -10175,7 +10154,7 @@
         <v>410300000</v>
       </c>
     </row>
-    <row r="471" spans="1:6" ht="15.5">
+    <row r="471" spans="1:9" ht="15.5">
       <c r="A471" s="23" t="s">
         <v>26</v>
       </c>
@@ -10195,7 +10174,7 @@
         <v>423800000</v>
       </c>
     </row>
-    <row r="472" spans="1:6" ht="15.5">
+    <row r="472" spans="1:9" ht="15.5">
       <c r="A472" s="23" t="s">
         <v>26</v>
       </c>
@@ -10215,7 +10194,7 @@
         <v>450000000</v>
       </c>
     </row>
-    <row r="473" spans="1:6" ht="15.5">
+    <row r="473" spans="1:9" ht="15.5">
       <c r="A473" s="23" t="s">
         <v>26</v>
       </c>
@@ -10225,17 +10204,20 @@
       <c r="C473" s="23">
         <v>2</v>
       </c>
-      <c r="D473" s="28">
+      <c r="D473" s="25">
         <v>398000000</v>
       </c>
-      <c r="E473" s="28">
+      <c r="E473" s="25">
         <v>350000000</v>
       </c>
-      <c r="F473" s="28">
+      <c r="F473" s="25">
         <v>450000000</v>
       </c>
-    </row>
-    <row r="474" spans="1:6" ht="15.5">
+      <c r="G473" s="27"/>
+      <c r="H473" s="27"/>
+      <c r="I473" s="27"/>
+    </row>
+    <row r="474" spans="1:9" ht="15.5">
       <c r="A474" s="23" t="s">
         <v>26</v>
       </c>
@@ -10245,17 +10227,20 @@
       <c r="C474" s="23">
         <v>3</v>
       </c>
-      <c r="D474" s="28">
+      <c r="D474" s="25">
         <v>400900000</v>
       </c>
-      <c r="E474" s="28">
+      <c r="E474" s="25">
         <v>348500000</v>
       </c>
-      <c r="F474" s="28">
+      <c r="F474" s="25">
         <v>460000000</v>
       </c>
-    </row>
-    <row r="475" spans="1:6" ht="15.5">
+      <c r="G474" s="27"/>
+      <c r="H474" s="27"/>
+      <c r="I474" s="27"/>
+    </row>
+    <row r="475" spans="1:9" ht="15.5">
       <c r="A475" s="23" t="s">
         <v>10</v>
       </c>
@@ -10275,7 +10260,7 @@
         <v>116250000</v>
       </c>
     </row>
-    <row r="476" spans="1:6" ht="15.5">
+    <row r="476" spans="1:9" ht="15.5">
       <c r="A476" s="23" t="s">
         <v>10</v>
       </c>
@@ -10295,7 +10280,7 @@
         <v>120000000</v>
       </c>
     </row>
-    <row r="477" spans="1:6" ht="15.5">
+    <row r="477" spans="1:9" ht="15.5">
       <c r="A477" s="23" t="s">
         <v>10</v>
       </c>
@@ -10315,7 +10300,7 @@
         <v>120000000</v>
       </c>
     </row>
-    <row r="478" spans="1:6" ht="15.5">
+    <row r="478" spans="1:9" ht="15.5">
       <c r="A478" s="23" t="s">
         <v>10</v>
       </c>
@@ -10335,7 +10320,7 @@
         <v>120000000</v>
       </c>
     </row>
-    <row r="479" spans="1:6" ht="15.5">
+    <row r="479" spans="1:9" ht="15.5">
       <c r="A479" s="23" t="s">
         <v>10</v>
       </c>
@@ -10355,7 +10340,7 @@
         <v>120000000</v>
       </c>
     </row>
-    <row r="480" spans="1:6" ht="15.5">
+    <row r="480" spans="1:9" ht="15.5">
       <c r="A480" s="23" t="s">
         <v>10</v>
       </c>
@@ -11015,7 +11000,7 @@
         <v>120000000</v>
       </c>
     </row>
-    <row r="513" spans="1:6" ht="15.5">
+    <row r="513" spans="1:9" ht="15.5">
       <c r="A513" s="23" t="s">
         <v>10</v>
       </c>
@@ -11035,7 +11020,7 @@
         <v>125000000</v>
       </c>
     </row>
-    <row r="514" spans="1:6" ht="15.5">
+    <row r="514" spans="1:9" ht="15.5">
       <c r="A514" s="23" t="s">
         <v>10</v>
       </c>
@@ -11055,7 +11040,7 @@
         <v>129800000</v>
       </c>
     </row>
-    <row r="515" spans="1:6" ht="15.5">
+    <row r="515" spans="1:9" ht="15.5">
       <c r="A515" s="23" t="s">
         <v>10</v>
       </c>
@@ -11075,7 +11060,7 @@
         <v>130000000</v>
       </c>
     </row>
-    <row r="516" spans="1:6" ht="15.5">
+    <row r="516" spans="1:9" ht="15.5">
       <c r="A516" s="23" t="s">
         <v>10</v>
       </c>
@@ -11085,17 +11070,20 @@
       <c r="C516" s="23">
         <v>2</v>
       </c>
-      <c r="D516" s="28">
+      <c r="D516" s="25">
         <v>117900000</v>
       </c>
-      <c r="E516" s="28">
+      <c r="E516" s="25">
         <v>100000000</v>
       </c>
-      <c r="F516" s="28">
+      <c r="F516" s="25">
         <v>130000000</v>
       </c>
-    </row>
-    <row r="517" spans="1:6" ht="15.5">
+      <c r="G516" s="27"/>
+      <c r="H516" s="27"/>
+      <c r="I516" s="27"/>
+    </row>
+    <row r="517" spans="1:9" ht="15.5">
       <c r="A517" s="23" t="s">
         <v>10</v>
       </c>
@@ -11105,17 +11093,20 @@
       <c r="C517" s="23">
         <v>3</v>
       </c>
-      <c r="D517" s="28">
+      <c r="D517" s="25">
         <v>119400000</v>
       </c>
-      <c r="E517" s="28">
+      <c r="E517" s="25">
         <v>100000000</v>
       </c>
-      <c r="F517" s="28">
+      <c r="F517" s="25">
         <v>130000000</v>
       </c>
-    </row>
-    <row r="518" spans="1:6" ht="15.5">
+      <c r="G517" s="27"/>
+      <c r="H517" s="27"/>
+      <c r="I517" s="27"/>
+    </row>
+    <row r="518" spans="1:9" ht="15.5">
       <c r="A518" s="23" t="s">
         <v>11</v>
       </c>
@@ -11135,7 +11126,7 @@
         <v>456000000</v>
       </c>
     </row>
-    <row r="519" spans="1:6" ht="15.5">
+    <row r="519" spans="1:9" ht="15.5">
       <c r="A519" s="23" t="s">
         <v>11</v>
       </c>
@@ -11155,7 +11146,7 @@
         <v>472000000</v>
       </c>
     </row>
-    <row r="520" spans="1:6" ht="15.5">
+    <row r="520" spans="1:9" ht="15.5">
       <c r="A520" s="23" t="s">
         <v>11</v>
       </c>
@@ -11175,7 +11166,7 @@
         <v>472000000</v>
       </c>
     </row>
-    <row r="521" spans="1:6" ht="15.5">
+    <row r="521" spans="1:9" ht="15.5">
       <c r="A521" s="23" t="s">
         <v>11</v>
       </c>
@@ -11195,7 +11186,7 @@
         <v>472000000</v>
       </c>
     </row>
-    <row r="522" spans="1:6" ht="15.5">
+    <row r="522" spans="1:9" ht="15.5">
       <c r="A522" s="23" t="s">
         <v>11</v>
       </c>
@@ -11215,7 +11206,7 @@
         <v>480000000</v>
       </c>
     </row>
-    <row r="523" spans="1:6" ht="15.5">
+    <row r="523" spans="1:9" ht="15.5">
       <c r="A523" s="23" t="s">
         <v>11</v>
       </c>
@@ -11235,7 +11226,7 @@
         <v>500000000</v>
       </c>
     </row>
-    <row r="524" spans="1:6" ht="15.5">
+    <row r="524" spans="1:9" ht="15.5">
       <c r="A524" s="23" t="s">
         <v>11</v>
       </c>
@@ -11255,7 +11246,7 @@
         <v>500000000</v>
       </c>
     </row>
-    <row r="525" spans="1:6" ht="15.5">
+    <row r="525" spans="1:9" ht="15.5">
       <c r="A525" s="23" t="s">
         <v>11</v>
       </c>
@@ -11275,7 +11266,7 @@
         <v>500000000</v>
       </c>
     </row>
-    <row r="526" spans="1:6" ht="15.5">
+    <row r="526" spans="1:9" ht="15.5">
       <c r="A526" s="23" t="s">
         <v>11</v>
       </c>
@@ -11295,7 +11286,7 @@
         <v>480000000</v>
       </c>
     </row>
-    <row r="527" spans="1:6" ht="15.5">
+    <row r="527" spans="1:9" ht="15.5">
       <c r="A527" s="23" t="s">
         <v>11</v>
       </c>
@@ -11315,7 +11306,7 @@
         <v>480000000</v>
       </c>
     </row>
-    <row r="528" spans="1:6" ht="15.5">
+    <row r="528" spans="1:9" ht="15.5">
       <c r="A528" s="23" t="s">
         <v>11</v>
       </c>
@@ -11945,12 +11936,16 @@
       <c r="C559" s="23">
         <v>2</v>
       </c>
-      <c r="D559" s="15"/>
-      <c r="E559" s="15"/>
-      <c r="F559" s="14"/>
-      <c r="G559" s="24" t="s">
-        <v>35</v>
-      </c>
+      <c r="D559" s="15">
+        <v>463600000</v>
+      </c>
+      <c r="E559" s="15">
+        <v>365400000</v>
+      </c>
+      <c r="F559" s="14">
+        <v>530000000</v>
+      </c>
+      <c r="G559" s="28"/>
     </row>
     <row r="560" spans="1:7" ht="15.5">
       <c r="A560" s="23" t="s">
@@ -11962,12 +11957,16 @@
       <c r="C560" s="23">
         <v>3</v>
       </c>
-      <c r="D560" s="15"/>
-      <c r="E560" s="15"/>
-      <c r="F560" s="14"/>
-      <c r="G560" s="24" t="s">
-        <v>50</v>
-      </c>
+      <c r="D560" s="15">
+        <v>465600000</v>
+      </c>
+      <c r="E560" s="15">
+        <v>396800000</v>
+      </c>
+      <c r="F560" s="14">
+        <v>530300000</v>
+      </c>
+      <c r="G560" s="28"/>
     </row>
     <row r="561" spans="1:6" ht="15.5">
       <c r="A561" s="23" t="s">
@@ -12799,12 +12798,16 @@
       <c r="C602" s="23">
         <v>2</v>
       </c>
-      <c r="D602" s="15"/>
-      <c r="E602" s="15"/>
-      <c r="F602" s="14"/>
-      <c r="G602" s="27" t="s">
-        <v>36</v>
-      </c>
+      <c r="D602" s="15">
+        <v>90900000</v>
+      </c>
+      <c r="E602" s="15">
+        <v>80000000</v>
+      </c>
+      <c r="F602" s="14">
+        <v>96000000</v>
+      </c>
+      <c r="G602" s="27"/>
     </row>
     <row r="603" spans="1:7" ht="15.5">
       <c r="A603" s="23" t="s">
@@ -12816,12 +12819,16 @@
       <c r="C603" s="23">
         <v>3</v>
       </c>
-      <c r="D603" s="15"/>
-      <c r="E603" s="15"/>
-      <c r="F603" s="14"/>
-      <c r="G603" s="27" t="s">
-        <v>51</v>
-      </c>
+      <c r="D603" s="15">
+        <v>91600000</v>
+      </c>
+      <c r="E603" s="15">
+        <v>80000000</v>
+      </c>
+      <c r="F603" s="14">
+        <v>96000000</v>
+      </c>
+      <c r="G603" s="27"/>
     </row>
     <row r="604" spans="1:7" ht="15.5">
       <c r="A604" s="23" t="s">
@@ -13653,12 +13660,16 @@
       <c r="C645" s="23">
         <v>2</v>
       </c>
-      <c r="D645" s="15"/>
-      <c r="E645" s="15"/>
-      <c r="F645" s="14"/>
-      <c r="G645" s="27" t="s">
-        <v>37</v>
-      </c>
+      <c r="D645" s="15">
+        <v>355000000</v>
+      </c>
+      <c r="E645" s="15">
+        <v>300000000</v>
+      </c>
+      <c r="F645" s="14">
+        <v>398500000</v>
+      </c>
+      <c r="G645" s="27"/>
     </row>
     <row r="646" spans="1:7" ht="15.5">
       <c r="A646" s="23" t="s">
@@ -13670,12 +13681,16 @@
       <c r="C646" s="23">
         <v>3</v>
       </c>
-      <c r="D646" s="15"/>
-      <c r="E646" s="15"/>
-      <c r="F646" s="14"/>
-      <c r="G646" s="27" t="s">
-        <v>52</v>
-      </c>
+      <c r="D646" s="15">
+        <v>360500000</v>
+      </c>
+      <c r="E646" s="15">
+        <v>308200000</v>
+      </c>
+      <c r="F646" s="14">
+        <v>400000000</v>
+      </c>
+      <c r="G646" s="27"/>
     </row>
     <row r="647" spans="1:7" ht="15.5">
       <c r="A647" s="23" t="s">
@@ -14507,12 +14522,16 @@
       <c r="C688" s="23">
         <v>2</v>
       </c>
-      <c r="D688" s="15"/>
-      <c r="E688" s="15"/>
-      <c r="F688" s="14"/>
-      <c r="G688" s="27" t="s">
-        <v>38</v>
-      </c>
+      <c r="D688" s="15">
+        <v>96900000</v>
+      </c>
+      <c r="E688" s="15">
+        <v>80000000</v>
+      </c>
+      <c r="F688" s="14">
+        <v>110000000</v>
+      </c>
+      <c r="G688" s="27"/>
     </row>
     <row r="689" spans="1:7" ht="15.5">
       <c r="A689" s="23" t="s">
@@ -14524,12 +14543,16 @@
       <c r="C689" s="23">
         <v>3</v>
       </c>
-      <c r="D689" s="15"/>
-      <c r="E689" s="15"/>
-      <c r="F689" s="14"/>
-      <c r="G689" s="27" t="s">
-        <v>53</v>
-      </c>
+      <c r="D689" s="15">
+        <v>98200000</v>
+      </c>
+      <c r="E689" s="15">
+        <v>84000000</v>
+      </c>
+      <c r="F689" s="14">
+        <v>110000000</v>
+      </c>
+      <c r="G689" s="27"/>
     </row>
     <row r="690" spans="1:7" ht="15.5">
       <c r="A690" s="23" t="s">
@@ -15361,12 +15384,16 @@
       <c r="C731" s="23">
         <v>2</v>
       </c>
-      <c r="D731" s="15"/>
-      <c r="E731" s="15"/>
-      <c r="F731" s="14"/>
-      <c r="G731" s="27" t="s">
-        <v>39</v>
-      </c>
+      <c r="D731" s="15">
+        <v>295300000</v>
+      </c>
+      <c r="E731" s="15">
+        <v>170000000</v>
+      </c>
+      <c r="F731" s="14">
+        <v>400000000</v>
+      </c>
+      <c r="G731" s="27"/>
     </row>
     <row r="732" spans="1:7" ht="15.5">
       <c r="A732" s="23" t="s">
@@ -15378,12 +15405,16 @@
       <c r="C732" s="23">
         <v>3</v>
       </c>
-      <c r="D732" s="15"/>
-      <c r="E732" s="15"/>
-      <c r="F732" s="14"/>
-      <c r="G732" s="27" t="s">
-        <v>54</v>
-      </c>
+      <c r="D732" s="15">
+        <v>305900000</v>
+      </c>
+      <c r="E732" s="15">
+        <v>187400000</v>
+      </c>
+      <c r="F732" s="14">
+        <v>452400000</v>
+      </c>
+      <c r="G732" s="27"/>
     </row>
     <row r="733" spans="1:7" ht="15.5">
       <c r="A733" s="23" t="s">
@@ -16215,12 +16246,16 @@
       <c r="C774" s="23">
         <v>2</v>
       </c>
-      <c r="D774" s="15"/>
-      <c r="E774" s="15"/>
-      <c r="F774" s="14"/>
-      <c r="G774" s="27" t="s">
-        <v>40</v>
-      </c>
+      <c r="D774" s="15">
+        <v>545800000</v>
+      </c>
+      <c r="E774" s="15">
+        <v>428600000</v>
+      </c>
+      <c r="F774" s="14">
+        <v>570000000</v>
+      </c>
+      <c r="G774" s="27"/>
     </row>
     <row r="775" spans="1:7" ht="15.5">
       <c r="A775" s="23" t="s">
@@ -16232,12 +16267,16 @@
       <c r="C775" s="23">
         <v>3</v>
       </c>
-      <c r="D775" s="15"/>
-      <c r="E775" s="15"/>
-      <c r="F775" s="14"/>
-      <c r="G775" s="27" t="s">
-        <v>55</v>
-      </c>
+      <c r="D775" s="15">
+        <v>554600000</v>
+      </c>
+      <c r="E775" s="15">
+        <v>463400000</v>
+      </c>
+      <c r="F775" s="14">
+        <v>600000000</v>
+      </c>
+      <c r="G775" s="27"/>
     </row>
     <row r="776" spans="1:7" ht="15.5">
       <c r="A776" s="23" t="s">
@@ -17069,12 +17108,16 @@
       <c r="C817" s="23">
         <v>2</v>
       </c>
-      <c r="D817" s="15"/>
-      <c r="E817" s="15"/>
-      <c r="F817" s="14"/>
-      <c r="G817" s="27" t="s">
-        <v>41</v>
-      </c>
+      <c r="D817" s="15">
+        <v>498300000</v>
+      </c>
+      <c r="E817" s="15">
+        <v>404300000</v>
+      </c>
+      <c r="F817" s="14">
+        <v>550000000</v>
+      </c>
+      <c r="G817" s="27"/>
     </row>
     <row r="818" spans="1:7" ht="15.5">
       <c r="A818" s="23" t="s">
@@ -17086,12 +17129,16 @@
       <c r="C818" s="23">
         <v>3</v>
       </c>
-      <c r="D818" s="15"/>
-      <c r="E818" s="15"/>
-      <c r="F818" s="14"/>
-      <c r="G818" s="27" t="s">
-        <v>56</v>
-      </c>
+      <c r="D818" s="15">
+        <v>504000000</v>
+      </c>
+      <c r="E818" s="15">
+        <v>425500000</v>
+      </c>
+      <c r="F818" s="14">
+        <v>550000000</v>
+      </c>
+      <c r="G818" s="27"/>
     </row>
     <row r="819" spans="1:7" ht="15.5">
       <c r="A819" s="23" t="s">
